--- a/Lesson Widget Cure Asset Collection.xlsx
+++ b/Lesson Widget Cure Asset Collection.xlsx
@@ -1,26 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinallard/Documents/GitHub/lesson-page/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CA8FD35-4BE2-704F-A3F3-B5ACEECEF217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84CA69D-3F17-204D-8DB9-ECE80460857A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="2300" windowWidth="27640" windowHeight="16940" xr2:uid="{13594F6F-309B-D044-863F-E9F3BD8BA2C2}"/>
+    <workbookView xWindow="9260" yWindow="2400" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{13594F6F-309B-D044-863F-E9F3BD8BA2C2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Lesson Widget Cure Asset Collec" sheetId="1" r:id="rId1"/>
+    <sheet name="CA" sheetId="1" r:id="rId1"/>
+    <sheet name="LoL" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6723" uniqueCount="1888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6754" uniqueCount="1892">
   <si>
     <t>assetId</t>
   </si>
@@ -5684,6 +5698,18 @@
   </si>
   <si>
     <t>resources/lesson-overview/CA/CA_SM5e_IM1_M05_T14_L05.json</t>
+  </si>
+  <si>
+    <t>ELA-WL-POC-Tester-LessonPageInfoWidget.json</t>
+  </si>
+  <si>
+    <t>ELA/WL Test</t>
+  </si>
+  <si>
+    <t>resources/lesson-overview/lenses-on-literature/ELA-WL-POC-Tester-LessonPageInfoWidget.json</t>
+  </si>
+  <si>
+    <t>db133bd9cde89a4dac9f23ca3559064c76abf373</t>
   </si>
 </sst>
 </file>
@@ -6547,7 +6573,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B80FE66A-AF64-E74E-80B5-BB637C0F587C}">
   <dimension ref="A1:Q480"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -29120,4 +29148,123 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F651C8B6-1451-004F-802F-5C6A1D0AA08C}">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="102" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1888</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1889</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>